--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53399.83422384715</v>
+        <v>10626567.01054558</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53399.83422384715</v>
+        <v>10626567.01054558</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23780.4874035333</v>
+        <v>2764326.08200261</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23780.4874035333</v>
+        <v>2764326.08200261</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495299777.719491</v>
+        <v>59552554.66502759</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12220.27053490411</v>
+        <v>1336546.627486436</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23737.30406197674</v>
+        <v>2563860.888529113</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35253.86243753421</v>
+        <v>3791080.594420277</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48606.9973625144</v>
+        <v>4875230.733529641</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60555.17546915438</v>
+        <v>6102747.826405306</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72503.35357579433</v>
+        <v>7330264.919280969</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84451.53168243429</v>
+        <v>8557782.01215663</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96399.70978907426</v>
+        <v>9785299.105032288</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109664.4050713878</v>
+        <v>10851259.60818383</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121604.4190273769</v>
+        <v>12079057.66735659</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133544.9081348812</v>
+        <v>13306950.28168087</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144966.5837131053</v>
+        <v>14516663.20753325</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156475.6871701173</v>
+        <v>15743774.28126442</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>168970.2932038799</v>
+        <v>16831418.67133351</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185287.8402765666</v>
+        <v>17449712.28848602</v>
       </c>
     </row>
   </sheetData>
